--- a/biology/Biologie cellulaire et moléculaire/ETS2/ETS2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ETS2/ETS2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine C-ets-2 (V-ets erythroblastosis virus E26 oncogene homolog 2 (avian) ou ETS2) est une protéine codée chez l'humain par le gène ETS2[5],[6] situé sur le chromosome 21 humain. La protéine codée par ce gène appartient à la famille des facteurs de transcription ETS[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine C-ets-2 (V-ets erythroblastosis virus E26 oncogene homolog 2 (avian) ou ETS2) est une protéine codée chez l'humain par le gène ETS2, situé sur le chromosome 21 humain. La protéine codée par ce gène appartient à la famille des facteurs de transcription ETS.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La protéine ETS2 s'est montrée être capable d'interagir avec :
-ZMYND11[7]
-ERG[8]
-Cdk10[9]
-c-Jun[8]</t>
+ZMYND11
+ERG
+Cdk10
+c-Jun</t>
         </is>
       </c>
     </row>
